--- a/Timesheet/Timesheet.xlsx
+++ b/Timesheet/Timesheet.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$8:$E$34</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -73,6 +72,18 @@
   </si>
   <si>
     <t>0,25u</t>
+  </si>
+  <si>
+    <t>Optimaliseren Html5 template</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>Updaten productiedossier</t>
+  </si>
+  <si>
+    <t>0,5u</t>
   </si>
 </sst>
 </file>
@@ -490,7 +501,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,21 +668,41 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="14">
+        <v>42686</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="14">
+        <v>42686</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
